--- a/Bug report.xlsx
+++ b/Bug report.xlsx
@@ -671,92 +671,6 @@
     <t>The command to report of any specified event code is not response data</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Pre-condidtion:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Make sure the command </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[cmd:report,000000,9#]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is ran.
-1. Connect device
-2. Open Putty console</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Run query:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[cmd:report?]
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">
 Step 3. 
 The response data return message is value of report (heartbeat event)</t>
@@ -767,71 +681,6 @@
 The response data return message is Failed</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pre-condidtion:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Make sure the command </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[cmd:report,000000,1#]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is ran.
-1. Connect device
-2. Open Putty console
-3. Send reset command to console:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[cmd:nomove?]
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">
 \satt20.04.16\Screenshot bugs\2020-12-24\Screenshot 2020-12-24 160802.png</t>
   </si>
@@ -839,72 +688,6 @@
     <t xml:space="preserve">
 Step 3. 
 The response data return message is value of geofence</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Pre-condition:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Make sure the command
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[cmd:moduleota,https://www.123.com/update/es800.bin#] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is ran.
-1. Connect device
-2. Open Putty console
-3. Send command to console:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[cmd:moduleota?]
-</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1062,6 +845,232 @@
     <t xml:space="preserve">
 Step 3.
 The response data return Success message</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pre-condidtion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Make sure the command </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[cmd:report,000000,1#]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is already running.
+1. Connect device
+2. Open Putty console
+3. Send reset command to console:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[cmd:nomove?]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pre-condidtion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Make sure the command </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[cmd:report,000000,9#]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is already running.
+1. Connect device
+2. Open Putty console
+3. Run query:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[cmd:report?]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pre-condition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Make sure the command
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[cmd:moduleota,https://www.123.com/update/es800.bin#]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is already running.
+1. Connect device
+2. Open Putty console
+3. Send command to console:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[cmd:moduleota?]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1190,12 +1199,6 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1206,6 +1209,12 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1243,12 +1252,12 @@
     <tableColumn id="2" name="Summary" dataDxfId="8"/>
     <tableColumn id="3" name="Description" dataDxfId="7"/>
     <tableColumn id="4" name="Steps" dataDxfId="6"/>
-    <tableColumn id="10" name="Expected" dataDxfId="0"/>
-    <tableColumn id="8" name="Actual" dataDxfId="1"/>
-    <tableColumn id="6" name="Frequency" dataDxfId="5"/>
-    <tableColumn id="9" name="Create at" dataDxfId="4"/>
-    <tableColumn id="7" name="Notes" dataDxfId="3" dataCellStyle="Note"/>
-    <tableColumn id="5" name="Comments" dataDxfId="2"/>
+    <tableColumn id="10" name="Expected" dataDxfId="5"/>
+    <tableColumn id="8" name="Actual" dataDxfId="4"/>
+    <tableColumn id="6" name="Frequency" dataDxfId="3"/>
+    <tableColumn id="9" name="Create at" dataDxfId="2"/>
+    <tableColumn id="7" name="Notes" dataDxfId="1" dataCellStyle="Note"/>
+    <tableColumn id="5" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1543,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D26" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1684,7 +1693,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="2:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1693,7 +1702,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>72</v>
@@ -1727,7 +1736,7 @@
         <v>70</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>10</v>
@@ -1740,7 +1749,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1749,10 +1758,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>71</v>
@@ -1814,7 +1823,7 @@
         <v>44189</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K16" s="2"/>
     </row>
@@ -1833,7 +1842,7 @@
         <v>70</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>8</v>
@@ -1891,7 +1900,7 @@
         <v>70</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>10</v>
@@ -1914,10 +1923,10 @@
         <v>82</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>10</v>
@@ -1943,7 +1952,7 @@
         <v>70</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>10</v>
@@ -1963,10 +1972,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>71</v>
@@ -1992,7 +2001,7 @@
         <v>84</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>71</v>
@@ -2018,7 +2027,7 @@
         <v>85</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>71</v>
@@ -2044,7 +2053,7 @@
         <v>86</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>71</v>
@@ -2070,7 +2079,7 @@
         <v>87</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>71</v>
@@ -2096,10 +2105,10 @@
         <v>88</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>10</v>
@@ -2119,13 +2128,13 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>10</v>
@@ -2141,17 +2150,17 @@
         <v>55</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>8</v>
@@ -2178,10 +2187,10 @@
         <v>89</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>10</v>
